--- a/r4-core-70-restored/StructureDefinition-at-core-organization.xlsx
+++ b/r4-core-70-restored/StructureDefinition-at-core-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-17T10:08:54+00:00</t>
+    <t>2024-02-17T10:40:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-70-restored/StructureDefinition-at-core-organization.xlsx
+++ b/r4-core-70-restored/StructureDefinition-at-core-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-17T10:47:46+00:00</t>
+    <t>2024-02-17T15:06:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
